--- a/data/swmgt.xlsx
+++ b/data/swmgt.xlsx
@@ -4,26 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="list_swmgt" sheetId="1" r:id="rId1"/>
-    <sheet name="start_swmgt" sheetId="12" r:id="rId2"/>
+    <sheet name="start_stop_swmgt" sheetId="12" r:id="rId2"/>
     <sheet name="restart_swmgt" sheetId="18" r:id="rId3"/>
-    <sheet name="stop_swmgt" sheetId="19" r:id="rId4"/>
-    <sheet name="mod_swmgt" sheetId="20" r:id="rId5"/>
-    <sheet name="add_swmgt" sheetId="21" r:id="rId6"/>
-    <sheet name="delete_swmgt" sheetId="22" r:id="rId7"/>
-    <sheet name="invalid_setting_for_swmgt" sheetId="8" r:id="rId8"/>
-    <sheet name="invalid_option_for_swmgt" sheetId="9" r:id="rId9"/>
-    <sheet name="missing_parameter_for_swmgt" sheetId="10" r:id="rId10"/>
+    <sheet name="mod_swmgt" sheetId="20" r:id="rId4"/>
+    <sheet name="add_swmgt" sheetId="21" r:id="rId5"/>
+    <sheet name="delete_swmgt" sheetId="22" r:id="rId6"/>
+    <sheet name="invalid_parameter_for_swmgt" sheetId="8" r:id="rId7"/>
+    <sheet name="invalid_option_for_swmgt" sheetId="9" r:id="rId8"/>
+    <sheet name="missing_parameter_for_swmgt" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="370">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +59,1357 @@
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n slp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n snmp</t>
+  </si>
+  <si>
+    <t>swmgt -n snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web server info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service location protocol agent info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email notification info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All software components info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced feature info should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartupType:</t>
+  </si>
+  <si>
+    <t>SMTPServer:</t>
+  </si>
+  <si>
+    <t>SmtpPort:</t>
+  </si>
+  <si>
+    <t>SSL:</t>
+  </si>
+  <si>
+    <t>Authentication:</t>
+  </si>
+  <si>
+    <t>SenderAddr:</t>
+  </si>
+  <si>
+    <t>Subject:</t>
+  </si>
+  <si>
+    <t>SessionTimeout(minutes):</t>
+  </si>
+  <si>
+    <t>Port:</t>
+  </si>
+  <si>
+    <t>MaxConnection:</t>
+  </si>
+  <si>
+    <t>SysName:</t>
+  </si>
+  <si>
+    <t>SysLocation:</t>
+  </si>
+  <si>
+    <t>SysContact:</t>
+  </si>
+  <si>
+    <t>ReadCommunity:</t>
+  </si>
+  <si>
+    <t>WriteCommunity:</t>
+  </si>
+  <si>
+    <t>Port6:</t>
+  </si>
+  <si>
+    <t>ReadCommunity6:</t>
+  </si>
+  <si>
+    <t>WriteCommunity6:</t>
+  </si>
+  <si>
+    <t>FeatureId</t>
+  </si>
+  <si>
+    <t>FeatureName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1              Storage-AA</t>
+  </si>
+  <si>
+    <t>2              Remote-Replication</t>
+  </si>
+  <si>
+    <t>3              Remote-Migration</t>
+  </si>
+  <si>
+    <t>4              Local-Replication</t>
+  </si>
+  <si>
+    <t>5              Local-Migration</t>
+  </si>
+  <si>
+    <t>6              External-Storage-FC</t>
+  </si>
+  <si>
+    <t>7              External-Storage-iSCSI</t>
+  </si>
+  <si>
+    <t>swmgt -a start -n email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -n email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n slp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -n slp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -n webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -n snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of email should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of slp should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of webserver should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of ssh should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of snmp should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of snmp should be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of email should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of slp should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of webserver should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software component of snmp should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email                  Started</t>
+  </si>
+  <si>
+    <t>Email                  Stopped</t>
+  </si>
+  <si>
+    <t>SLP                    Started</t>
+  </si>
+  <si>
+    <t>SLP                    Stopped</t>
+  </si>
+  <si>
+    <t>Webserver              Started</t>
+  </si>
+  <si>
+    <t>Webserver              Stopped</t>
+  </si>
+  <si>
+    <t>SNMP                   Started</t>
+  </si>
+  <si>
+    <t>SNMP                   Stopped</t>
+  </si>
+  <si>
+    <t>SSH                    Started</t>
+  </si>
+  <si>
+    <t>swmgt -a start -n email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n slp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email notification should be restarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service location protocol agent should berestarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web server should be restarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp should be restarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -t manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n slp -t manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -t manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -t manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup type of email should be modified manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup type of slp should be modified manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup type of webserver should be modified manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup type of ssh should be modified manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup type of snmp should be modified manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartupType: Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -t automatic</t>
+  </si>
+  <si>
+    <t>startup type of email should be modified automatic</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n slp -t automatic</t>
+  </si>
+  <si>
+    <t>startup type of slp should be modified automatic</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -t automatic</t>
+  </si>
+  <si>
+    <t>startup type of webserver should be modified automatic</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -t automatic</t>
+  </si>
+  <si>
+    <t>startup type of ssh should be modified automatic</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -t automatic</t>
+  </si>
+  <si>
+    <t>startup type of snmp should be modified automatic</t>
+  </si>
+  <si>
+    <t>StartupType: Automatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -t manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSL: 0</t>
+  </si>
+  <si>
+    <t>Authentication: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SenderAddr: zach.feng@cn.promise.com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject: this is the test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "smtpserver=211.150.65.81,serverport=65535,authentication=no,senderaddr=zach.feng@cn.promise.com,subject=this is the test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email should be modified with "smtpserver=211.150.65.81,serverport=65535,authentication=no,senderaddr=zach.feng@cn.promise.com,subject=this is the test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTPServer: 211.150.65.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmtpPort: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmtpPort: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTPServer: exchange2007.promise.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "smtpserver=exchange2007.promise.com.tw,serverport=0,authentication=yes,username=test,password=123456,senderaddr=zach.feng@cn.promise.com,subject=this is the test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email should be modified with "smtpserver=exchange2007.promise.com.tw,serverport=0,authentication=yes,username=test,password=123456,senderaddr=zach.feng@cn.promise.com,subject=this is the test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication: Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "sessiontimeout=1400"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "sessiontimeout=30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "sessiontimeout=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webserver should be modified with "sessiontimeout=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webserver should be modified with "sessiontimeout=1400"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webserver should be modified with "sessiontimeout=30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionTimeout(minutes): 1</t>
+  </si>
+  <si>
+    <t>SessionTimeout(minutes): 1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionTimeout(minutes): 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "port=1,sessiontimeout=1,maxconnection=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "port=22,sessiontimeout=60,maxconnection=4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "port=65535,sessiontimeout=1400,maxconnection=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port: 1</t>
+  </si>
+  <si>
+    <t>MaxConnection: 1</t>
+  </si>
+  <si>
+    <t>Port: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port: 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionTimeout(minutes): 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxConnection: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxConnection: 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port=1,port6=65535,sysname=name,syslocation=CN,syscontact=admin@email.com,readcommunity=IPv4,readcommunity6=IPv6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp should be modified with "port=1,port6=65535,sysname=name,syslocation=CN,syscontact=admin@email.com,readcommunity=IPv4,readcommunity6=IPv6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysName: name</t>
+  </si>
+  <si>
+    <t>SysLocation: CN</t>
+  </si>
+  <si>
+    <t>Port6: 65535</t>
+  </si>
+  <si>
+    <t>SysContact: admin@email.com</t>
+  </si>
+  <si>
+    <t>ReadCommunity: IPv4</t>
+  </si>
+  <si>
+    <t>ReadCommunity6: IPv6</t>
+  </si>
+  <si>
+    <t>SysLocation: ShangHai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysContact: test@email.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysName: DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port=65535,port6=1,sysname=DS,syslocation=ShangHai,syscontact=test@email.cn,readcommunity=IPv4,readcommunity6=IPv6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp should be modified with "port=65535,port6=1,sysname=DS,syslocation=ShangHai,syscontact=test@email.cn,readcommunity=IPv4,readcommunity6=IPv6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCommunity: IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh should be modified with "port=1,sessiontimeout=1,maxconnection=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh should be modified with "port=65535,sessiontimeout=1400,maxconnection=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh should be modified with "port=22,sessiontimeout=60,maxconnection=4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port6: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=server.name,trapfilter=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=1.1.1.1,trapfilter=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=255.1.1.1,trapfilter=minor"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=1.255.1.1,trapfilter=major"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=1.1.255.1,trapfilter=critical"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=1.1.1.255,trapfilter=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=255.1.1.1,trapfilter=minor"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server.name</t>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=1.1.1.1,trapfilter=warning"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>255.1.1.1</t>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=1.255.1.1,trapfilter=major"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.255.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=1.1.255.1,trapfilter=critical"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.255.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=1.1.1.255,trapfilter=fatal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.255</t>
+  </si>
+  <si>
+    <t>swmgt -a add -n ssh -p "filename=test,server=10.84.2.99,comment=root@server"</t>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap sink 6 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 1</t>
+  </si>
+  <si>
+    <t>trap sink 1 should be deleted</t>
+  </si>
+  <si>
+    <t>fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 4</t>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 3</t>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 2</t>
+  </si>
+  <si>
+    <t>trap sink 5 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap sink 4 should be deleted</t>
+  </si>
+  <si>
+    <t>trap sink 3 should be deleted</t>
+  </si>
+  <si>
+    <t>trap sink 2 should be deleted</t>
+  </si>
+  <si>
+    <t>critical and above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major and above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor and above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning and above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info and above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n ssh -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public key 1 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -n test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -n test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n tset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n test -t automatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "serverport=-1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting -1 (0,65535)</t>
+  </si>
+  <si>
+    <t>invalid setting 65536 (0,65535)</t>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes listing action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes starting action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes stopping action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes restarting action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes modification action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting startup type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp server ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp server port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "serverport=65536"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "senderaddr=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp senderaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid sender_address: test</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "authentication=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid authentication (yes|no)</t>
+  </si>
+  <si>
+    <t>email should be modified with "subject=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject: t-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email should be modified with "username=t-t,authentication=yes"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "subject=8&amp;#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting smtp subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "sessiontimeout=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "sessiontimeout=1441"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 0 (1,1440)</t>
+  </si>
+  <si>
+    <t>invalid setting 1441 (1,1440)</t>
+  </si>
+  <si>
+    <t>Invalid setting ssh port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "port=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 0 (1,65535)</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "port=65536"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 65536 (1,65535)</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "sessiontimeout=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "sessiontimeout=1441"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting webserver session time out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ssh session time out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "maxconnection=5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 0 (1,4)</t>
+  </si>
+  <si>
+    <t>invalid setting 5 (1,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "maxconnection=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ssh maxconnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port=65536"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port6=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp port6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp port6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "port6=65536"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysName: t-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp sysname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_name contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "syslocation=*$#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysLocation: t-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "readcommunity=*&amp;$"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp syslocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp readcommunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp readcommunity6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "sysname=t-t,syslocation=t-t,readcommunity=t-t,readcommunity6=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp should be modified with "sysname=t-t,syslocation=t-t,readcommunity=t-t,readcommunity6=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCommunity: t-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCommunity6: t-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "syscontact=*$#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp syscontact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid sys_contact:</t>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "authentication=no,username=zach.feng,password=012345"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid setting </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot specify user_name if SMTP authentication is set to NO</t>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=*&amp;%$#,trapfilter=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp trap sink server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "trapsinkserver=server.name,trapfilter=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting snmp trap filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (info|warning|minor|major|critical|fatal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid trap_server:</t>
+  </si>
+  <si>
+    <t>Invalid setting file name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n ssh -p "filename=test_key.pub,server=0,comment=root@server"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting tftp server ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to get file from the TFTP server</t>
+  </si>
+  <si>
+    <t>swmgt -a add -n ssh -p "filename=test_key.pub,server=10.84.2.99,comment=*&amp;%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n ssh -p "filename=test_key.pub,server=10.84.2.99,comment=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ssh comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -i 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 0 (1,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 256 (1,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n ssh -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n test -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting component name when executes adding action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "username=&amp;*/?%"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "sysname=*&amp;#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "readcommunity6=*&amp;$"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "smtpserver=256.256.256.256"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "subject=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "username=t-t,authentication=yes,password=012345"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_location contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+  </si>
+  <si>
+    <t>read_community contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+  </si>
+  <si>
+    <t>read_community6 contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart -n -tset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n email -s "test=256.256.256.256"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -s "test=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n ssh -s "test=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n snmp -s "test=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n snmp -p "test=test,trapfilter=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n ssh -p "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del -n snmp -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a restart -n </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a mod -n </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -n webserver -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a mod -n email -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a mod -s "port=65536"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a add -n snmp -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a add -p "server=10.84.2.99,comment=root@server"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swmgt -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a del -n </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a del -n snmp -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh public key should be added with "filename=test_key.pub,server=10.84.2.99,comment=t-t"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap sink should be added with "trapsinkserver=server.name,trapfilter=info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,11 +1453,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,25 +1762,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="41.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
@@ -435,7 +1789,7 @@
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -444,6 +1798,191 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -453,59 +1992,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -522,6 +2023,188 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -533,17 +2216,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
@@ -561,6 +2244,62 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -572,23 +2311,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.25" customWidth="1"/>
+    <col min="2" max="2" width="83.625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -600,6 +2343,427 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -611,23 +2775,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.875" customWidth="1"/>
+    <col min="2" max="2" width="99.375" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -639,6 +2804,107 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -650,18 +2916,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -678,6 +2945,104 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -689,34 +3054,798 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.125" customWidth="1"/>
+    <col min="2" max="2" width="65.75" customWidth="1"/>
+    <col min="3" max="3" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D79" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -726,110 +3855,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="73.25" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.375" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -844,11 +3881,201 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/swmgt.xlsx
+++ b/data/swmgt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="list_swmgt" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="369">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Failed to get file from the TFTP server</t>
   </si>
   <si>
@@ -1365,10 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swmgt -a mod -s "port=65536"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swmgt -a add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1410,6 +1402,10 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swmgt -a mod -s </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2545,7 +2541,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>244</v>
@@ -2559,7 +2555,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>246</v>
@@ -2811,7 +2807,7 @@
         <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2892,10 +2888,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3056,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3187,7 +3183,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>234</v>
@@ -3228,7 +3224,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
         <v>238</v>
@@ -3404,7 +3400,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
         <v>278</v>
@@ -3421,7 +3417,7 @@
         <v>283</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -3443,23 +3439,23 @@
         <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
         <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -3470,10 +3466,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" t="s">
         <v>320</v>
-      </c>
-      <c r="B39" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3517,23 +3513,23 @@
         <v>304</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
         <v>309</v>
-      </c>
-      <c r="C44" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -3544,7 +3540,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -3555,32 +3551,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" t="s">
         <v>313</v>
-      </c>
-      <c r="C47" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
         <v>312</v>
       </c>
-      <c r="B48" t="s">
-        <v>313</v>
-      </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -3663,10 +3659,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3674,7 +3670,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3685,7 +3681,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3696,7 +3692,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3707,7 +3703,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3718,7 +3714,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3729,7 +3725,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3740,7 +3736,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3751,7 +3747,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3762,7 +3758,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3773,7 +3769,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -3784,7 +3780,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3795,7 +3791,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -3806,7 +3802,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -3828,7 +3824,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -3839,7 +3835,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -3859,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3882,10 +3878,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3893,7 +3889,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3904,7 +3900,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3915,7 +3911,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -3926,7 +3922,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -3959,7 +3955,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -3970,7 +3966,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -3992,7 +3988,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4003,7 +3999,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4014,7 +4010,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4025,7 +4021,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4036,7 +4032,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4047,7 +4043,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4058,7 +4054,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4069,7 +4065,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>

--- a/data/swmgt.xlsx
+++ b/data/swmgt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="367">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,10 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Invalid setting smtp server ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid setting smtp server port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,10 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Invalid setting snmp readcommunity6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swmgt -a mod -n snmp -s "sysname=t-t,syslocation=t-t,readcommunity=t-t,readcommunity6=t-t"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1227,14 +1219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swmgt -a mod -n snmp -s "readcommunity6=*&amp;$"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swmgt -a mod -n email -s "smtpserver=256.256.256.256"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swmgt -a mod -n email -s "subject=t-t"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1249,10 +1233,6 @@
     <t>read_community contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
   </si>
   <si>
-    <t>read_community6 contains only alphanumeric characters,  blank spaces, '.', '-', '@', '\', '/', ':' and '_'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swmgt -test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1407,6 +1387,15 @@
   <si>
     <t xml:space="preserve">swmgt -a mod -s </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (email|slp|webserver|ssh|snmp|advanced)</t>
+  </si>
+  <si>
+    <t>invalid setting test (automatic|manual)</t>
+  </si>
+  <si>
+    <t>invalid setting tset (email|slp|webserver|ssh|snmp|advanced)</t>
   </si>
 </sst>
 </file>
@@ -2541,30 +2530,30 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>135</v>
@@ -2738,28 +2727,28 @@
     </row>
     <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2796,7 @@
         <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2888,10 +2877,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3050,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3093,6 +3082,9 @@
       <c r="B3" t="s">
         <v>228</v>
       </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3123,7 +3115,9 @@
       <c r="B6" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -3132,7 +3126,9 @@
       <c r="B7" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -3152,7 +3148,9 @@
       <c r="B9" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -3172,6 +3170,9 @@
       <c r="B11" t="s">
         <v>232</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -3180,90 +3181,96 @@
       <c r="B12" t="s">
         <v>233</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>234</v>
       </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" t="s">
-        <v>235</v>
-      </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -3271,7 +3278,7 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
         <v>254</v>
@@ -3279,35 +3286,35 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -3315,7 +3322,7 @@
         <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
         <v>254</v>
@@ -3323,35 +3330,35 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
         <v>268</v>
-      </c>
-      <c r="B27" t="s">
-        <v>269</v>
       </c>
       <c r="C27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>265</v>
+      <c r="A28" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -3359,244 +3366,231 @@
         <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
         <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>282</v>
+      <c r="A36" t="s">
+        <v>316</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>323</v>
+      <c r="A37" t="s">
+        <v>317</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>297</v>
+      </c>
+      <c r="C39" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s">
         <v>310</v>
       </c>
-      <c r="B47" t="s">
-        <v>312</v>
-      </c>
       <c r="C47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>311</v>
-      </c>
-      <c r="B48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="2"/>
+    </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D64" s="3"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D71" s="2"/>
@@ -3618,12 +3612,6 @@
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D79" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3659,10 +3647,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3670,7 +3658,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3681,7 +3669,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3692,7 +3680,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3703,7 +3691,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3714,7 +3702,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3725,7 +3713,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3736,7 +3724,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3747,7 +3735,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3758,7 +3746,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3769,7 +3757,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -3780,7 +3768,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3791,7 +3779,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -3802,7 +3790,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -3813,7 +3801,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -3824,7 +3812,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -3835,7 +3823,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -3878,10 +3866,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3889,7 +3877,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3900,7 +3888,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3911,7 +3899,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -3922,7 +3910,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3933,7 +3921,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3944,7 +3932,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -3955,7 +3943,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -3966,7 +3954,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -3977,7 +3965,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -3988,7 +3976,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -3999,7 +3987,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4010,7 +3998,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4021,7 +4009,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4032,7 +4020,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4043,7 +4031,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4054,7 +4042,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4065,7 +4053,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
